--- a/World/Risk Position Size Calculation.xlsx
+++ b/World/Risk Position Size Calculation.xlsx
@@ -641,7 +641,7 @@
   <dimension ref="B1:M106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -665,7 +665,7 @@
       <c r="H1" s="24"/>
       <c r="I1" s="25"/>
       <c r="J1" s="3">
-        <v>386.71</v>
+        <v>232</v>
       </c>
       <c r="L1" s="21" t="s">
         <v>7</v>
@@ -702,7 +702,7 @@
       </c>
       <c r="D3" s="10">
         <f>J1+SUM(I3:I500)</f>
-        <v>386.71</v>
+        <v>232</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="11"/>
@@ -736,7 +736,7 @@
       </c>
       <c r="D5" s="10">
         <f>D3/100*D13</f>
-        <v>11.601299999999998</v>
+        <v>6.9599999999999991</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="11"/>
@@ -767,7 +767,7 @@
       </c>
       <c r="D7" s="13">
         <f>ROUNDDOWN(D5/D9,1)/10</f>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>2</v>
@@ -787,7 +787,7 @@
       </c>
       <c r="D8" s="10">
         <f>D7*10</f>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="11"/>
